--- a/observations/orbit_plans/mtp065/nomad_mtp065_plan.xlsx
+++ b/observations/orbit_plans/mtp065/nomad_mtp065_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="629">
   <si>
     <t>#orbitType</t>
   </si>
@@ -55,1831 +55,1843 @@
     <t>comment</t>
   </si>
   <si>
+    <t>HDO H2O 2SUBD 03</t>
+  </si>
+  <si>
+    <t>2023 MAR 18 16:04:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=42; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #3</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #21</t>
+  </si>
+  <si>
+    <t>2023 MAR 18 18:02:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
+  </si>
+  <si>
+    <t>2023 MAR 18 20:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.1hrs; &amp;Angle=42; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #14</t>
+  </si>
+  <si>
+    <t>2023 MAR 18 21:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:PHOENIX; </t>
+  </si>
+  <si>
+    <t>Surface Ice 3SUBD #3</t>
+  </si>
+  <si>
+    <t>2023 MAR 18 23:56:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.1hrs; &amp;Angle=43; </t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #3</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #7</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 01:54:26</t>
+  </si>
+  <si>
+    <t>Night Limb #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 03:52:23</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 05:50:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=43; </t>
+  </si>
+  <si>
+    <t>2023 MAR 19 07:48:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadDeimos; </t>
+  </si>
+  <si>
+    <t>2023 MAR 19 09:46:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>129 only #2</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO2 #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 11:43:57</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 13:41:54</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #4</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #52</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 15:39:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=45; </t>
+  </si>
+  <si>
+    <t>2023 MAR 19 17:37:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=45; </t>
+  </si>
+  <si>
+    <t>Surface Ice 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 19:35:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #12</t>
+  </si>
+  <si>
+    <t>6SUBD CO #5</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 21:33:33</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
+    <t>2023 MAR 19 23:31:26</t>
+  </si>
+  <si>
+    <t>2023 MAR 20 01:29:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=46; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #1</t>
+  </si>
+  <si>
+    <t>HCL #5</t>
+  </si>
+  <si>
+    <t>Surface 3SUBD #3</t>
+  </si>
+  <si>
+    <t>2023 MAR 20 03:27:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 20 05:25:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
+  </si>
+  <si>
+    <t>2023 MAR 20 07:23:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=46; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #1</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 20 09:21:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
+  </si>
+  <si>
+    <t>2023 MAR 20 11:18:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>2023 MAR 20 13:16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; </t>
+  </si>
+  <si>
+    <t>2023 MAR 20 15:14:45</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
+    <t>HCL #9</t>
+  </si>
+  <si>
+    <t>2023 MAR 20 17:12:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>H2O 2SUBD 01</t>
+  </si>
+  <si>
+    <t>2023 MAR 20 19:10:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 20 21:08:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>2023 MAR 20 23:06:20</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 01:04:15</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #22</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 03:02:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=49; </t>
+  </si>
+  <si>
+    <t>2023 MAR 21 05:00:08</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 06:58:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 08:55:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 MAR 21 10:53:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 21 12:51:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=50; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 14:49:38</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 16:47:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 21 18:45:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=51; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #6</t>
+  </si>
+  <si>
+    <t>2023 MAR 21 20:43:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
+  </si>
+  <si>
+    <t>2023 MAR 21 22:41:15</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 00:39:09</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CH4 #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 02:37:04</t>
+  </si>
+  <si>
+    <t>H2O CO 3SUBD #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 04:35:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=52; </t>
+  </si>
+  <si>
+    <t>2023 MAR 22 06:32:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=52; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #28</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O CO #15</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 08:30:50</t>
+  </si>
+  <si>
+    <t>All Fullscan Slow #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 10:28:42</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 12:26:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=53; </t>
+  </si>
+  <si>
+    <t>2023 MAR 22 14:24:29</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 16:22:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES NE; </t>
+  </si>
+  <si>
+    <t>CH4 H2O 2SUBD 02</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 18:20:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #13</t>
+  </si>
+  <si>
+    <t>2023 MAR 22 20:18:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>2023 MAR 22 22:16:09</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 00:14:00</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 02:11:55</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #11</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 04:09:52</t>
+  </si>
+  <si>
+    <t>6SUBD CO H2O #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 06:07:48</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 08:05:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>2023 MAR 23 10:03:36</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 12:01:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #13</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #19</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 13:59:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>2023 MAR 23 15:57:18</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #51</t>
+  </si>
+  <si>
     <t>CH4 CO 2SUBD #4</t>
   </si>
   <si>
-    <t>2023 MAR 18 16:04:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=42; </t>
+    <t>2023 MAR 23 17:55:15</t>
+  </si>
+  <si>
+    <t>6SUBD CH4 #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 23 19:53:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2023 MAR 23 21:51:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2023 MAR 23 23:48:52</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 01:46:45</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 03:44:41</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #53</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 05:42:37</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 07:40:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>2023 MAR 24 09:38:25</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #27</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 11:36:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 24 13:34:07</t>
   </si>
   <si>
     <t>6SUBD Nominal #48</t>
   </si>
   <si>
-    <t>2023 MAR 18 18:02:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
-  </si>
-  <si>
-    <t>2023 MAR 18 20:00:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.1hrs; &amp;Angle=42; </t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #4</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #14</t>
-  </si>
-  <si>
-    <t>2023 MAR 18 21:58:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:PHOENIX; </t>
+    <t>6SUBD CO2 CO #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 15:32:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2023 MAR 24 17:30:02</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #3</t>
+  </si>
+  <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 19:27:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:EAST THAUMASIA; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 MAR 24 21:25:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #24</t>
+  </si>
+  <si>
+    <t>2023 MAR 24 23:23:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ALBA MONS; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #26</t>
+  </si>
+  <si>
+    <t>2023 MAR 25 01:21:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2023 MAR 25 03:19:27</t>
+  </si>
+  <si>
+    <t>2023 MAR 25 05:17:24</t>
+  </si>
+  <si>
+    <t>2023 MAR 25 07:15:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2023 MAR 25 09:13:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>2023 MAR 25 11:11:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>2023 MAR 25 13:08:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; </t>
+  </si>
+  <si>
+    <t>2023 MAR 25 15:06:49</t>
+  </si>
+  <si>
+    <t>HCL #10</t>
+  </si>
+  <si>
+    <t>2023 MAR 25 17:04:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #20</t>
+  </si>
+  <si>
+    <t>2023 MAR 25 19:02:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>2023 MAR 25 21:00:36</t>
+  </si>
+  <si>
+    <t>uvisMerged</t>
+  </si>
+  <si>
+    <t>2023 MAR 25 22:58:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2023 MAR 26 00:56:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2023 MAR 26 02:54:11</t>
+  </si>
+  <si>
+    <t>2023 MAR 26 04:52:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
+  </si>
+  <si>
+    <t>2023 MAR 26 06:50:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2023 MAR 26 08:47:57</t>
+  </si>
+  <si>
+    <t>uvisGrazing</t>
+  </si>
+  <si>
+    <t>2023 MAR 26 10:45:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2023 MAR 26 12:43:38</t>
+  </si>
+  <si>
+    <t>2023 MAR 26 14:41:30</t>
+  </si>
+  <si>
+    <t>2023 MAR 26 16:39:27</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #11</t>
+  </si>
+  <si>
+    <t>2023 MAR 26 18:37:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2023 MAR 26 20:35:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>Surface Ice 3SUBD #2</t>
+  </si>
+  <si>
+    <t>2023 MAR 26 22:33:10</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 00:30:59</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 02:28:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2023 MAR 27 04:26:47</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 06:24:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2023 MAR 27 08:22:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2023 MAR 27 10:20:29</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 12:18:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:SOUTH THAUMASIA; &amp;daysideMatch:ASCRAEUS MONS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 27 14:16:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #45</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 16:14:04</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 18:12:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2023 MAR 27 20:09:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>H2O CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 27 22:07:48</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 00:05:37</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 02:03:27</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 04:01:21</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 05:59:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 MAR 28 07:57:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2023 MAR 28 09:55:04</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 11:52:54</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 13:50:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2023 MAR 28 15:48:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2023 MAR 28 17:46:32</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 19:44:28</t>
+  </si>
+  <si>
+    <t>2023 MAR 28 21:42:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2023 MAR 28 23:40:09</t>
+  </si>
+  <si>
+    <t>2023 MAR 29 01:37:57</t>
+  </si>
+  <si>
+    <t>2023 MAR 29 03:35:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2023 MAR 29 05:33:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2023 MAR 29 07:31:39</t>
+  </si>
+  <si>
+    <t>2023 MAR 29 09:29:32</t>
+  </si>
+  <si>
+    <t>uvisNightLimb</t>
+  </si>
+  <si>
+    <t>2023 MAR 29 11:27:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; &amp;daysideMatch:EAST THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2023 MAR 29 13:25:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 MAR 29 15:22:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2023 MAR 29 17:20:53</t>
+  </si>
+  <si>
+    <t>Ice CH4 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2023 MAR 29 19:18:49</t>
+  </si>
+  <si>
+    <t>2023 MAR 29 21:16:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2023 MAR 29 23:14:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2023 MAR 30 01:12:17</t>
+  </si>
+  <si>
+    <t>2023 MAR 30 03:10:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2023 MAR 30 05:08:00</t>
+  </si>
+  <si>
+    <t>2023 MAR 30 07:05:54</t>
+  </si>
+  <si>
+    <t>2023 MAR 30 09:03:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; </t>
+  </si>
+  <si>
+    <t>2023 MAR 30 11:01:37</t>
+  </si>
+  <si>
+    <t>2023 MAR 30 12:59:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 30 14:57:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2023 MAR 30 16:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.7hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2023 MAR 30 18:52:56</t>
+  </si>
+  <si>
+    <t>2023 MAR 30 20:50:49</t>
+  </si>
+  <si>
+    <t>2023 MAR 30 22:48:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2023 MAR 31 00:46:22</t>
+  </si>
+  <si>
+    <t>2023 MAR 31 02:44:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2023 MAR 31 04:41:56</t>
+  </si>
+  <si>
+    <t>2023 MAR 31 06:39:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2023 MAR 31 08:37:40</t>
+  </si>
+  <si>
+    <t>2023 MAR 31 10:35:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2023 MAR 31 12:33:13</t>
+  </si>
+  <si>
+    <t>2023 MAR 31 14:30:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2023 MAR 31 16:28:41</t>
+  </si>
+  <si>
+    <t>2023 MAR 31 18:26:34</t>
+  </si>
+  <si>
+    <t>2023 MAR 31 20:24:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2023 MAR 31 22:22:14</t>
+  </si>
+  <si>
+    <t>2023 APR 01 00:19:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 02:17:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 04:15:19</t>
+  </si>
+  <si>
+    <t>2023 APR 01 06:13:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 08:10:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 10:08:43</t>
+  </si>
+  <si>
+    <t>2023 APR 01 12:06:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 14:04:02</t>
+  </si>
+  <si>
+    <t>2023 APR 01 16:01:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 17:59:24</t>
+  </si>
+  <si>
+    <t>2023 APR 01 19:57:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 21:54:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2023 APR 01 23:52:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 01:50:03</t>
+  </si>
+  <si>
+    <t>2023 APR 02 03:47:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;acsSolarCalibration; </t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD #2</t>
+  </si>
+  <si>
+    <t>2023 APR 02 05:45:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 07:42:58</t>
+  </si>
+  <si>
+    <t>2023 APR 02 09:40:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 11:38:09</t>
+  </si>
+  <si>
+    <t>2023 APR 02 13:35:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 15:33:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 17:30:30</t>
+  </si>
+  <si>
+    <t>2023 APR 02 19:28:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 21:25:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 02 23:23:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 01:20:18</t>
+  </si>
+  <si>
+    <t>2023 APR 03 03:17:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.4hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 05:14:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 07:12:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 09:09:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 11:06:47</t>
+  </si>
+  <si>
+    <t>2023 APR 03 13:03:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 15:00:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.8hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 16:57:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.6hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 18:55:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.5hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 20:52:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.3hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 03 22:49:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.0hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 00:45:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.7hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 02:42:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.3hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 04:39:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 06:36:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=2.3hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 08:33:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=1.6hrs; &amp;Angle=86; </t>
   </si>
   <si>
     <t>Surface Ice 4SUBD 02</t>
   </si>
   <si>
-    <t>2023 MAR 18 23:56:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.1hrs; &amp;Angle=43; </t>
-  </si>
-  <si>
-    <t>All Fullscan Slow #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 01:54:26</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 03:52:23</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #13</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 05:50:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=43; </t>
-  </si>
-  <si>
-    <t>2023 MAR 19 07:48:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadDeimos; </t>
-  </si>
-  <si>
-    <t>2023 MAR 19 09:46:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>All Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #28</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 11:43:57</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 13:41:54</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #12</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 15:39:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=45; </t>
-  </si>
-  <si>
-    <t>2023 MAR 19 17:37:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=45; </t>
-  </si>
-  <si>
-    <t>H2O CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 19:35:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #2</t>
-  </si>
-  <si>
-    <t>CO2 100km #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 21:33:33</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #12</t>
-  </si>
-  <si>
-    <t>2023 MAR 19 23:31:26</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 01:29:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=46; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #1</t>
-  </si>
-  <si>
-    <t>Surface 3SUBD #3</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 03:27:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 20 05:25:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
-  </si>
-  <si>
-    <t>2023 MAR 20 07:23:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=46; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 09:21:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
-  </si>
-  <si>
-    <t>2023 MAR 20 11:18:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=47; </t>
-  </si>
-  <si>
-    <t>2023 MAR 20 13:16:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #5</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 15:14:45</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #24</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 17:12:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>Ice CH4 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 19:10:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>LNO Occultation Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #45</t>
-  </si>
-  <si>
-    <t>2023 MAR 20 21:08:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>2023 MAR 20 23:06:20</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 01:04:15</t>
-  </si>
-  <si>
-    <t>6SUBD CO #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 03:02:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=49; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #4</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 05:00:08</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 06:58:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #22</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O CO #15</t>
-  </si>
-  <si>
-    <t>Surface Ice 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 08:55:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 MAR 21 10:53:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 21 12:51:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=50; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #16</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 14:49:38</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #1</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #53</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 16:47:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 21 18:45:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=51; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #3</t>
-  </si>
-  <si>
-    <t>2023 MAR 21 20:43:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
-  </si>
-  <si>
-    <t>2023 MAR 21 22:41:15</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 00:39:09</t>
-  </si>
-  <si>
-    <t>6SUBD CO H2O #2</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 02:37:04</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 04:35:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=52; </t>
-  </si>
-  <si>
-    <t>2023 MAR 22 06:32:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=52; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #6</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #11</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 08:30:50</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 10:28:42</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 12:26:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=53; </t>
-  </si>
-  <si>
-    <t>2023 MAR 22 14:24:29</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 16:22:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES NE; </t>
-  </si>
-  <si>
-    <t>CH4 H2O 2SUBD 02</t>
-  </si>
-  <si>
-    <t>2023 MAR 22 18:20:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2023 MAR 22 20:18:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>2023 MAR 22 22:16:09</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 00:14:00</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 02:11:55</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #12</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 04:09:52</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #51</t>
+    <t>2023 APR 04 10:29:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=0.7hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 12:26:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=23.7hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 14:23:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=22.8hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 16:20:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=22.1hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 18:17:15</t>
+  </si>
+  <si>
+    <t>2023 APR 04 20:14:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.9hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 04 22:10:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.5hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 00:07:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.2hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 02:04:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.9hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 04:01:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.7hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 05:59:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.5hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 07:56:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.4hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 09:53:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.2hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 11:50:17</t>
+  </si>
+  <si>
+    <t>2023 APR 05 13:47:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.0hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 15:45:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 17:42:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.8hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 19:39:35</t>
+  </si>
+  <si>
+    <t>2023 APR 05 21:36:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.7hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 05 23:34:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 01:31:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 03:29:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 05:26:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 07:24:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 09:21:43</t>
+  </si>
+  <si>
+    <t>2023 APR 06 11:19:15</t>
+  </si>
+  <si>
+    <t>2023 APR 06 13:16:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 15:14:39</t>
+  </si>
+  <si>
+    <t>2023 APR 06 17:12:19</t>
+  </si>
+  <si>
+    <t>2023 APR 06 19:09:51</t>
+  </si>
+  <si>
+    <t>2023 APR 06 21:07:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2023 APR 06 23:05:04</t>
+  </si>
+  <si>
+    <t>2023 APR 07 01:02:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2023 APR 07 03:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2023 APR 07 04:58:16</t>
+  </si>
+  <si>
+    <t>2023 APR 07 06:55:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2023 APR 07 08:53:34</t>
+  </si>
+  <si>
+    <t>2023 APR 07 10:51:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2023 APR 07 12:48:59</t>
+  </si>
+  <si>
+    <t>2023 APR 07 14:46:51</t>
+  </si>
+  <si>
+    <t>2023 APR 07 16:44:41</t>
+  </si>
+  <si>
+    <t>2023 APR 07 18:42:23</t>
+  </si>
+  <si>
+    <t>2023 APR 07 20:40:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2023 APR 07 22:37:46</t>
+  </si>
+  <si>
+    <t>2023 APR 08 00:35:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2023 APR 08 02:33:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; &amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>HDO H2O 2SUBD 02</t>
+  </si>
+  <si>
+    <t>2023 APR 08 04:31:14</t>
+  </si>
+  <si>
+    <t>2023 APR 08 06:29:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
+  </si>
+  <si>
+    <t>2023 APR 08 08:26:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2023 APR 08 10:24:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2023 APR 08 12:22:16</t>
+  </si>
+  <si>
+    <t>2023 APR 08 14:20:10</t>
+  </si>
+  <si>
+    <t>2023 APR 08 16:18:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2023 APR 08 18:15:54</t>
+  </si>
+  <si>
+    <t>2023 APR 08 20:13:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2023 APR 08 22:11:24</t>
+  </si>
+  <si>
+    <t>2023 APR 09 00:09:15</t>
+  </si>
+  <si>
+    <t>2023 APR 09 02:07:07</t>
+  </si>
+  <si>
+    <t>2023 APR 09 04:04:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2023 APR 09 06:02:50</t>
+  </si>
+  <si>
+    <t>2023 APR 09 08:00:38</t>
+  </si>
+  <si>
+    <t>2023 APR 09 09:58:24</t>
+  </si>
+  <si>
+    <t>2023 APR 09 11:56:13</t>
+  </si>
+  <si>
+    <t>2023 APR 09 13:54:06</t>
+  </si>
+  <si>
+    <t>2023 APR 09 15:52:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2023 APR 09 17:49:56</t>
+  </si>
+  <si>
+    <t>2023 APR 09 19:47:43</t>
+  </si>
+  <si>
+    <t>2023 APR 09 21:45:29</t>
+  </si>
+  <si>
+    <t>2023 APR 09 23:43:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2023 APR 10 01:41:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 APR 10 03:39:07</t>
+  </si>
+  <si>
+    <t>Surface Ice 6SUBD 01</t>
+  </si>
+  <si>
+    <t>2023 APR 10 05:37:00</t>
+  </si>
+  <si>
+    <t>2023 APR 10 07:34:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2023 APR 10 09:32:38</t>
+  </si>
+  <si>
+    <t>2023 APR 10 11:30:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2023 APR 10 13:28:21</t>
+  </si>
+  <si>
+    <t>2023 APR 10 15:26:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>Limb 2SUBD 07</t>
+  </si>
+  <si>
+    <t>uvisLimb</t>
+  </si>
+  <si>
+    <t>2023 APR 10 17:24:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueDayLimb; </t>
+  </si>
+  <si>
+    <t>2023 APR 10 19:22:05</t>
+  </si>
+  <si>
+    <t>2023 APR 10 21:19:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2023 APR 10 23:17:43</t>
+  </si>
+  <si>
+    <t>2023 APR 11 01:15:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2023 APR 11 03:13:31</t>
+  </si>
+  <si>
+    <t>2023 APR 11 05:11:25</t>
+  </si>
+  <si>
+    <t>2023 APR 11 07:09:18</t>
+  </si>
+  <si>
+    <t>2023 APR 11 09:07:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>2023 APR 11 11:04:56</t>
+  </si>
+  <si>
+    <t>2023 APR 11 13:02:48</t>
+  </si>
+  <si>
+    <t>2023 APR 11 15:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 APR 11 16:58:41</t>
+  </si>
+  <si>
+    <t>CH4 2SUBD 03</t>
+  </si>
+  <si>
+    <t>2023 APR 11 18:56:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 APR 11 20:54:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2023 APR 11 22:52:13</t>
+  </si>
+  <si>
+    <t>2023 APR 12 00:50:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 02:48:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 04:45:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 06:43:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 08:41:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES THOLUS; &amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 10:39:31</t>
+  </si>
+  <si>
+    <t>2023 APR 12 12:37:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 14:35:19</t>
+  </si>
+  <si>
+    <t>2023 APR 12 16:33:17</t>
+  </si>
+  <si>
+    <t>2023 APR 12 18:31:13</t>
+  </si>
+  <si>
+    <t>2023 APR 12 20:29:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2023 APR 12 22:26:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:PAVONIS MONS VOLCANIC CONES SE; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 00:24:45</t>
+  </si>
+  <si>
+    <t>2023 APR 13 02:22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 04:20:36</t>
+  </si>
+  <si>
+    <t>2023 APR 13 06:18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 08:16:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 10:14:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:NILI FOSSAE FORSTERITE; &amp;grazingMatch:PERSEVERANCE; &amp;daysideMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 12:12:04</t>
+  </si>
+  <si>
+    <t>2023 APR 13 14:09:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>134 only #2</t>
+  </si>
+  <si>
+    <t>2023 APR 13 16:07:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mergedMatch:VERNAL CRATER; &amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 18:05:53</t>
+  </si>
+  <si>
+    <t>2023 APR 13 20:03:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 22:01:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2023 APR 13 23:59:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mergedMatch:ULYSSES FOSSAE; </t>
+  </si>
+  <si>
+    <t>2023 APR 14 01:57:23</t>
+  </si>
+  <si>
+    <t>2023 APR 14 03:55:19</t>
+  </si>
+  <si>
+    <t>2023 APR 14 05:53:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>HCL #11</t>
+  </si>
+  <si>
+    <t>CH4 CO 2SUBD #3</t>
+  </si>
+  <si>
+    <t>2023 APR 14 07:51:08</t>
+  </si>
+  <si>
+    <t>2023 APR 14 09:48:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 APR 14 11:46:50</t>
+  </si>
+  <si>
+    <t>6SUBD CO #4</t>
+  </si>
+  <si>
+    <t>132 only #2</t>
+  </si>
+  <si>
+    <t>2023 APR 14 13:44:43</t>
+  </si>
+  <si>
+    <t>2023 APR 14 15:42:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #2</t>
+  </si>
+  <si>
+    <t>2023 APR 14 17:40:38</t>
+  </si>
+  <si>
+    <t>2023 APR 14 19:38:34</t>
+  </si>
+  <si>
+    <t>2023 APR 14 21:36:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2023 APR 14 23:34:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:ALBA MONS VOLCANIC CONES S; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2023 APR 15 01:32:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2023 APR 15 03:30:05</t>
+  </si>
+  <si>
+    <t>2023 APR 15 05:28:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2023 APR 15 07:25:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:SOUTH THAUMASIA; </t>
   </si>
   <si>
     <t>HDO 01</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 06:07:48</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 08:05:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>2023 MAR 23 10:03:36</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 12:01:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #5</t>
-  </si>
-  <si>
-    <t>129 only #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 13:59:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2023 MAR 23 15:57:18</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO2 #1</t>
-  </si>
-  <si>
-    <t>CH4 CO 2SUBD #3</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 17:55:15</t>
-  </si>
-  <si>
-    <t>6SUBD CH4 #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 23 19:53:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2023 MAR 23 21:51:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2023 MAR 23 23:48:52</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #29</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 01:46:45</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 03:44:41</t>
-  </si>
-  <si>
-    <t>Ice H2O 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 05:42:37</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 07:40:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>2023 MAR 24 09:38:25</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 11:36:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 24 13:34:07</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 15:32:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2023 MAR 24 17:30:02</t>
-  </si>
-  <si>
-    <t>H2O CO 3SUBD #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 24 19:27:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:EAST THAUMASIA; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 MAR 24 21:25:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2023 MAR 24 23:23:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ALBA MONS; </t>
-  </si>
-  <si>
-    <t>HCL #11</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 01:21:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2023 MAR 25 03:19:27</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO2 #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 05:17:24</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 07:15:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2023 MAR 25 09:13:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #7</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 11:11:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>2023 MAR 25 13:08:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; </t>
-  </si>
-  <si>
-    <t>2023 MAR 25 15:06:49</t>
-  </si>
-  <si>
-    <t>CO Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 17:04:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2023 MAR 25 19:02:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>H2O 2SUBD 01</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 21:00:36</t>
-  </si>
-  <si>
-    <t>uvisMerged</t>
-  </si>
-  <si>
-    <t>2023 MAR 25 22:58:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2023 MAR 26 00:56:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2023 MAR 26 02:54:11</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #11</t>
-  </si>
-  <si>
-    <t>2023 MAR 26 04:52:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
-  </si>
-  <si>
-    <t>2023 MAR 26 06:50:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2023 MAR 26 08:47:57</t>
-  </si>
-  <si>
-    <t>uvisGrazing</t>
-  </si>
-  <si>
-    <t>2023 MAR 26 10:45:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2023 MAR 26 12:43:38</t>
-  </si>
-  <si>
-    <t>2023 MAR 26 14:41:30</t>
-  </si>
-  <si>
-    <t>2023 MAR 26 16:39:27</t>
-  </si>
-  <si>
-    <t>2023 MAR 26 18:37:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>2023 MAR 26 20:35:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD #2</t>
-  </si>
-  <si>
-    <t>2023 MAR 26 22:33:10</t>
-  </si>
-  <si>
-    <t>2023 MAR 27 00:30:59</t>
-  </si>
-  <si>
-    <t>2023 MAR 27 02:28:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 04:26:47</t>
-  </si>
-  <si>
-    <t>2023 MAR 27 06:24:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 08:22:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 10:20:29</t>
-  </si>
-  <si>
-    <t>2023 MAR 27 12:18:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:SOUTH THAUMASIA; &amp;daysideMatch:ASCRAEUS MONS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 14:16:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 16:14:04</t>
-  </si>
-  <si>
-    <t>2023 MAR 27 18:12:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 20:09:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2023 MAR 27 22:07:48</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 00:05:37</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 02:03:27</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 04:01:21</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 05:59:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 MAR 28 07:57:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2023 MAR 28 09:55:04</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 11:52:54</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 13:50:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2023 MAR 28 15:48:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2023 MAR 28 17:46:32</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 19:44:28</t>
-  </si>
-  <si>
-    <t>2023 MAR 28 21:42:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2023 MAR 28 23:40:09</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 01:37:57</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 03:35:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2023 MAR 29 05:33:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>Surface Ice 6SUBD 01</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 07:31:39</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 09:29:32</t>
-  </si>
-  <si>
-    <t>Night Limb #2</t>
-  </si>
-  <si>
-    <t>uvisNightLimb</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 11:27:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; &amp;daysideMatch:EAST THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2023 MAR 29 13:25:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 MAR 29 15:22:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2023 MAR 29 17:20:53</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 19:18:49</t>
-  </si>
-  <si>
-    <t>2023 MAR 29 21:16:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2023 MAR 29 23:14:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2023 MAR 30 01:12:17</t>
-  </si>
-  <si>
-    <t>2023 MAR 30 03:10:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2023 MAR 30 05:08:00</t>
-  </si>
-  <si>
-    <t>2023 MAR 30 07:05:54</t>
-  </si>
-  <si>
-    <t>2023 MAR 30 09:03:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; </t>
-  </si>
-  <si>
-    <t>2023 MAR 30 11:01:37</t>
-  </si>
-  <si>
-    <t>2023 MAR 30 12:59:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 30 14:57:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>2023 MAR 30 16:55:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.7hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2023 MAR 30 18:52:56</t>
-  </si>
-  <si>
-    <t>2023 MAR 30 20:50:49</t>
-  </si>
-  <si>
-    <t>2023 MAR 30 22:48:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2023 MAR 31 00:46:22</t>
-  </si>
-  <si>
-    <t>2023 MAR 31 02:44:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2023 MAR 31 04:41:56</t>
-  </si>
-  <si>
-    <t>2023 MAR 31 06:39:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2023 MAR 31 08:37:40</t>
-  </si>
-  <si>
-    <t>2023 MAR 31 10:35:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2023 MAR 31 12:33:13</t>
-  </si>
-  <si>
-    <t>2023 MAR 31 14:30:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2023 MAR 31 16:28:41</t>
-  </si>
-  <si>
-    <t>2023 MAR 31 18:26:34</t>
-  </si>
-  <si>
-    <t>2023 MAR 31 20:24:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2023 MAR 31 22:22:14</t>
-  </si>
-  <si>
-    <t>2023 APR 01 00:19:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 02:17:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 04:15:19</t>
-  </si>
-  <si>
-    <t>2023 APR 01 06:13:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 08:10:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 10:08:43</t>
-  </si>
-  <si>
-    <t>2023 APR 01 12:06:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 14:04:02</t>
-  </si>
-  <si>
-    <t>2023 APR 01 16:01:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 17:59:24</t>
-  </si>
-  <si>
-    <t>2023 APR 01 19:57:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 21:54:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2023 APR 01 23:52:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 01:50:03</t>
-  </si>
-  <si>
-    <t>2023 APR 02 03:47:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;acsSolarCalibration; </t>
-  </si>
-  <si>
-    <t>Nominal 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2023 APR 02 05:45:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 07:42:58</t>
-  </si>
-  <si>
-    <t>2023 APR 02 09:40:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 11:38:09</t>
-  </si>
-  <si>
-    <t>2023 APR 02 13:35:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 15:33:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 17:30:30</t>
-  </si>
-  <si>
-    <t>2023 APR 02 19:28:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 21:25:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 02 23:23:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 01:20:18</t>
-  </si>
-  <si>
-    <t>2023 APR 03 03:17:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.4hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 05:14:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 07:12:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 09:09:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 11:06:47</t>
-  </si>
-  <si>
-    <t>2023 APR 03 13:03:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 15:00:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.8hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 16:57:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.6hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 18:55:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.5hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 20:52:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.3hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 03 22:49:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.0hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 00:45:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.7hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 02:42:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.3hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 04:39:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 06:36:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=2.3hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 08:33:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=1.6hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2023 APR 04 10:29:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=0.7hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 12:26:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=23.7hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 14:23:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=22.8hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 16:20:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=22.1hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 18:17:15</t>
-  </si>
-  <si>
-    <t>2023 APR 04 20:14:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.9hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 04 22:10:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.5hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 00:07:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.2hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 02:04:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.9hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 04:01:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.7hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 05:59:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.5hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 07:56:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.4hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 09:53:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.2hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 11:50:17</t>
-  </si>
-  <si>
-    <t>2023 APR 05 13:47:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.0hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 15:45:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 17:42:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.8hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 05 19:39:35</t>
-  </si>
-  <si>
-    <t>2023 APR 05 21:36:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.7hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>HDO H2O 2SUBD 02</t>
-  </si>
-  <si>
-    <t>2023 APR 05 23:34:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 01:31:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 03:29:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 05:26:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 07:24:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 09:21:43</t>
-  </si>
-  <si>
-    <t>2023 APR 06 11:19:15</t>
-  </si>
-  <si>
-    <t>2023 APR 06 13:16:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 15:14:39</t>
-  </si>
-  <si>
-    <t>2023 APR 06 17:12:19</t>
-  </si>
-  <si>
-    <t>2023 APR 06 19:09:51</t>
-  </si>
-  <si>
-    <t>2023 APR 06 21:07:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2023 APR 06 23:05:04</t>
-  </si>
-  <si>
-    <t>2023 APR 07 01:02:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2023 APR 07 03:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2023 APR 07 04:58:16</t>
-  </si>
-  <si>
-    <t>2023 APR 07 06:55:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2023 APR 07 08:53:34</t>
-  </si>
-  <si>
-    <t>2023 APR 07 10:51:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2023 APR 07 12:48:59</t>
-  </si>
-  <si>
-    <t>2023 APR 07 14:46:51</t>
-  </si>
-  <si>
-    <t>2023 APR 07 16:44:41</t>
-  </si>
-  <si>
-    <t>2023 APR 07 18:42:23</t>
-  </si>
-  <si>
-    <t>2023 APR 07 20:40:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2023 APR 07 22:37:46</t>
-  </si>
-  <si>
-    <t>2023 APR 08 00:35:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 02:33:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; &amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 04:31:14</t>
-  </si>
-  <si>
-    <t>2023 APR 08 06:29:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 08:26:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 10:24:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 12:22:16</t>
-  </si>
-  <si>
-    <t>2023 APR 08 14:20:10</t>
-  </si>
-  <si>
-    <t>2023 APR 08 16:18:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 18:15:54</t>
-  </si>
-  <si>
-    <t>2023 APR 08 20:13:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2023 APR 08 22:11:24</t>
-  </si>
-  <si>
-    <t>2023 APR 09 00:09:15</t>
-  </si>
-  <si>
-    <t>2023 APR 09 02:07:07</t>
-  </si>
-  <si>
-    <t>2023 APR 09 04:04:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2023 APR 09 06:02:50</t>
-  </si>
-  <si>
-    <t>2023 APR 09 08:00:38</t>
-  </si>
-  <si>
-    <t>2023 APR 09 09:58:24</t>
-  </si>
-  <si>
-    <t>2023 APR 09 11:56:13</t>
-  </si>
-  <si>
-    <t>2023 APR 09 13:54:06</t>
-  </si>
-  <si>
-    <t>2023 APR 09 15:52:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2023 APR 09 17:49:56</t>
-  </si>
-  <si>
-    <t>2023 APR 09 19:47:43</t>
-  </si>
-  <si>
-    <t>2023 APR 09 21:45:29</t>
-  </si>
-  <si>
-    <t>2023 APR 09 23:43:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2023 APR 10 01:41:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 APR 10 03:39:07</t>
-  </si>
-  <si>
-    <t>2023 APR 10 05:37:00</t>
-  </si>
-  <si>
-    <t>2023 APR 10 07:34:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2023 APR 10 09:32:38</t>
-  </si>
-  <si>
-    <t>2023 APR 10 11:30:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2023 APR 10 13:28:21</t>
-  </si>
-  <si>
-    <t>2023 APR 10 15:26:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>Nominal Limb 01</t>
-  </si>
-  <si>
-    <t>uvisLimb</t>
-  </si>
-  <si>
-    <t>2023 APR 10 17:24:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueDayLimb; </t>
-  </si>
-  <si>
-    <t>2023 APR 10 19:22:05</t>
-  </si>
-  <si>
-    <t>2023 APR 10 21:19:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2023 APR 10 23:17:43</t>
-  </si>
-  <si>
-    <t>2023 APR 11 01:15:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>Limb 2SUBD 07</t>
-  </si>
-  <si>
-    <t>2023 APR 11 03:13:31</t>
-  </si>
-  <si>
-    <t>2023 APR 11 05:11:25</t>
-  </si>
-  <si>
-    <t>2023 APR 11 07:09:18</t>
-  </si>
-  <si>
-    <t>2023 APR 11 09:07:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2023 APR 11 11:04:56</t>
-  </si>
-  <si>
-    <t>2023 APR 11 13:02:48</t>
-  </si>
-  <si>
-    <t>2023 APR 11 15:00:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 APR 11 16:58:41</t>
-  </si>
-  <si>
-    <t>CH4 2SUBD 03</t>
-  </si>
-  <si>
-    <t>2023 APR 11 18:56:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 APR 11 20:54:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2023 APR 11 22:52:13</t>
-  </si>
-  <si>
-    <t>2023 APR 12 00:50:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 02:48:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 04:45:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 06:43:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 08:41:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES THOLUS; &amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 10:39:31</t>
-  </si>
-  <si>
-    <t>2023 APR 12 12:37:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 14:35:19</t>
-  </si>
-  <si>
-    <t>2023 APR 12 16:33:17</t>
-  </si>
-  <si>
-    <t>CH4 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2023 APR 12 18:31:13</t>
-  </si>
-  <si>
-    <t>2023 APR 12 20:29:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2023 APR 12 22:26:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:PAVONIS MONS VOLCANIC CONES SE; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 00:24:45</t>
-  </si>
-  <si>
-    <t>2023 APR 13 02:22:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 04:20:36</t>
-  </si>
-  <si>
-    <t>2023 APR 13 06:18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 08:16:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 10:14:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:NILI FOSSAE FORSTERITE; &amp;grazingMatch:PERSEVERANCE; &amp;daysideMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 12:12:04</t>
-  </si>
-  <si>
-    <t>2023 APR 13 14:09:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>134 only #2</t>
-  </si>
-  <si>
-    <t>2023 APR 13 16:07:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:VERNAL CRATER; &amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 18:05:53</t>
-  </si>
-  <si>
-    <t>2023 APR 13 20:03:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 22:01:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2023 APR 13 23:59:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:ULYSSES FOSSAE; </t>
-  </si>
-  <si>
-    <t>2023 APR 14 01:57:23</t>
-  </si>
-  <si>
-    <t>2023 APR 14 03:55:19</t>
-  </si>
-  <si>
-    <t>2023 APR 14 05:53:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>2023 APR 14 07:51:08</t>
-  </si>
-  <si>
-    <t>2023 APR 14 09:48:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 APR 14 11:46:50</t>
-  </si>
-  <si>
-    <t>Dust H2O 01</t>
-  </si>
-  <si>
-    <t>2023 APR 14 13:44:43</t>
-  </si>
-  <si>
-    <t>2023 APR 14 15:42:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>HCL #10</t>
-  </si>
-  <si>
-    <t>2023 APR 14 17:40:38</t>
-  </si>
-  <si>
-    <t>6SUBD CO #2</t>
-  </si>
-  <si>
-    <t>2023 APR 14 19:38:34</t>
-  </si>
-  <si>
-    <t>2023 APR 14 21:36:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2023 APR 14 23:34:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:ALBA MONS VOLCANIC CONES S; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2023 APR 15 01:32:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>HCL #8</t>
-  </si>
-  <si>
-    <t>2023 APR 15 03:30:05</t>
-  </si>
-  <si>
-    <t>2023 APR 15 05:28:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2023 APR 15 07:25:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>133 only #2</t>
   </si>
   <si>
     <t>2023 APR 15 09:23:48</t>
@@ -2298,10 +2310,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -2310,10 +2322,10 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2324,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2335,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -2384,19 +2396,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -2405,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
         <v>27</v>
@@ -2413,13 +2425,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
       </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -2430,10 +2448,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -2442,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2453,10 +2471,10 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2467,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2478,19 +2496,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -2499,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2513,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2524,19 +2542,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -2545,10 +2563,10 @@
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2559,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2570,16 +2588,16 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2587,19 +2605,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -2608,10 +2626,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2619,19 +2637,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -2640,10 +2658,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2654,10 +2672,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2665,34 +2683,34 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2703,10 +2721,10 @@
         <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2717,10 +2735,10 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2728,19 +2746,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -2749,10 +2767,10 @@
         <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2760,10 +2778,10 @@
         <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2771,10 +2789,10 @@
         <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2782,19 +2800,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -2803,10 +2821,10 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2814,19 +2832,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -2835,10 +2853,10 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2846,16 +2864,16 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2863,19 +2881,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -2884,10 +2902,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2898,10 +2916,10 @@
         <v>8</v>
       </c>
       <c r="L30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" t="s">
         <v>84</v>
-      </c>
-      <c r="M30" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2912,10 +2930,10 @@
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2923,19 +2941,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -2944,10 +2962,10 @@
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2955,19 +2973,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
@@ -2976,10 +2994,10 @@
         <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2990,10 +3008,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3001,34 +3019,34 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3036,16 +3054,16 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s">
         <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3056,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3067,19 +3085,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>6</v>
@@ -3088,10 +3106,10 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3099,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -3117,7 +3135,7 @@
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s">
         <v>8</v>
@@ -3148,19 +3166,19 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
         <v>110</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" t="s">
         <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" t="s">
-        <v>94</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
@@ -3217,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -3229,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M44" t="s">
         <v>109</v>
@@ -3240,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
@@ -3303,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -3315,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M48" t="s">
         <v>121</v>
@@ -3329,10 +3347,10 @@
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3343,10 +3361,10 @@
         <v>8</v>
       </c>
       <c r="L50" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50" t="s">
         <v>128</v>
-      </c>
-      <c r="M50" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3354,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -3375,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3386,16 +3404,16 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3403,19 +3421,19 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
@@ -3424,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3438,10 +3456,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3449,10 +3467,10 @@
         <v>14</v>
       </c>
       <c r="L55" t="s">
+        <v>139</v>
+      </c>
+      <c r="M55" t="s">
         <v>137</v>
-      </c>
-      <c r="M55" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3460,10 +3478,10 @@
         <v>14</v>
       </c>
       <c r="L56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3471,19 +3489,19 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
@@ -3492,10 +3510,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3503,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -3527,7 +3545,7 @@
         <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3549,7 +3567,7 @@
         <v>147</v>
       </c>
       <c r="M60" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3557,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s">
         <v>8</v>
@@ -3620,19 +3638,19 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
         <v>155</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" t="s">
-        <v>72</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
@@ -3664,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
         <v>6</v>
@@ -3715,19 +3733,19 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
         <v>6</v>
@@ -3736,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M68" t="s">
         <v>162</v>
@@ -3750,7 +3768,7 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M69" t="s">
         <v>162</v>
@@ -3761,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
       </c>
       <c r="H70" t="s">
+        <v>156</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70" t="s">
         <v>167</v>
-      </c>
-      <c r="I70" t="s">
-        <v>8</v>
-      </c>
-      <c r="L70" t="s">
-        <v>168</v>
       </c>
       <c r="M70" t="s">
         <v>162</v>
@@ -3799,10 +3817,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
+        <v>168</v>
+      </c>
+      <c r="M71" t="s">
         <v>169</v>
-      </c>
-      <c r="M71" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3813,10 +3831,10 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3824,10 +3842,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -3853,7 +3871,7 @@
         <v>174</v>
       </c>
       <c r="M74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3861,19 +3879,19 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
@@ -3882,10 +3900,10 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3896,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3916,25 +3934,25 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="G77" t="s">
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I77" t="s">
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3945,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3956,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -3977,10 +3995,10 @@
         <v>8</v>
       </c>
       <c r="L79" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M79" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3988,19 +4006,19 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G80" t="s">
         <v>6</v>
@@ -4009,10 +4027,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M80" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4023,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M81" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4034,19 +4052,19 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
         <v>6</v>
@@ -4055,27 +4073,30 @@
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M82" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="H83" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I83" t="s">
         <v>8</v>
       </c>
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" t="s">
+        <v>10</v>
+      </c>
       <c r="L83" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M83" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4086,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4097,19 +4118,19 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F85" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s">
         <v>6</v>
@@ -4118,10 +4139,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4129,10 +4150,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M86" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4140,10 +4161,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M87" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4151,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F88" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
@@ -4163,10 +4184,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4174,19 +4195,19 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -4195,10 +4216,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M89" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4206,16 +4227,16 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s">
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4223,22 +4244,22 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I91" t="s">
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4249,10 +4270,10 @@
         <v>8</v>
       </c>
       <c r="L92" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4260,22 +4281,22 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I93" t="s">
         <v>8</v>
       </c>
       <c r="L93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4283,22 +4304,22 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4309,10 +4330,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4323,10 +4344,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
+        <v>220</v>
+      </c>
+      <c r="M96" t="s">
         <v>219</v>
-      </c>
-      <c r="M96" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4334,25 +4355,25 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H97" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="I97" t="s">
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4363,10 +4384,10 @@
         <v>8</v>
       </c>
       <c r="L98" t="s">
+        <v>224</v>
+      </c>
+      <c r="M98" t="s">
         <v>223</v>
-      </c>
-      <c r="M98" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4377,10 +4398,10 @@
         <v>8</v>
       </c>
       <c r="L99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4391,10 +4412,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4402,22 +4423,22 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="D101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I101" t="s">
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4425,22 +4446,22 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M102" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4448,16 +4469,16 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I103" t="s">
         <v>8</v>
       </c>
       <c r="L103" t="s">
+        <v>233</v>
+      </c>
+      <c r="M103" t="s">
         <v>231</v>
-      </c>
-      <c r="M103" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4465,22 +4486,22 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I104" t="s">
         <v>8</v>
       </c>
       <c r="L104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M104" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4491,10 +4512,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4505,10 +4526,10 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M106" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4516,22 +4537,22 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M107" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4542,10 +4563,10 @@
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M108" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4556,10 +4577,10 @@
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4567,25 +4588,25 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H110" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I110" t="s">
         <v>8</v>
       </c>
       <c r="L110" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4593,16 +4614,16 @@
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
       </c>
       <c r="L111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4610,22 +4631,22 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I112" t="s">
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M112" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4636,10 +4657,10 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M113" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4650,10 +4671,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4661,16 +4682,16 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4681,10 +4702,10 @@
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M116" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4695,10 +4716,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
+        <v>256</v>
+      </c>
+      <c r="M117" t="s">
         <v>252</v>
-      </c>
-      <c r="M117" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4709,10 +4730,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M118" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4723,10 +4744,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M119" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4737,10 +4758,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M120" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4751,10 +4772,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M121" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4762,16 +4783,16 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="I122" t="s">
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M122" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4782,10 +4803,10 @@
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M123" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4796,10 +4817,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M124" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4810,10 +4831,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M125" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4824,10 +4845,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M126" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4838,10 +4859,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M127" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4852,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M128" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4866,10 +4887,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M129" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4877,10 +4898,10 @@
         <v>14</v>
       </c>
       <c r="L130" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M130" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4891,10 +4912,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M131" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4902,16 +4923,16 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="I132" t="s">
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M132" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4919,10 +4940,10 @@
         <v>14</v>
       </c>
       <c r="L133" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M133" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4933,16 +4954,16 @@
         <v>8</v>
       </c>
       <c r="J134" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="K134" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L134" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4953,10 +4974,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M135" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4967,10 +4988,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M136" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4981,10 +5002,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M137" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4992,16 +5013,16 @@
         <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="I138" t="s">
         <v>8</v>
       </c>
       <c r="L138" t="s">
+        <v>289</v>
+      </c>
+      <c r="M138" t="s">
         <v>286</v>
-      </c>
-      <c r="M138" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5012,10 +5033,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M139" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5026,10 +5047,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M140" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5040,10 +5061,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M141" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5054,10 +5075,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M142" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5068,10 +5089,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M143" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5079,10 +5100,10 @@
         <v>14</v>
       </c>
       <c r="L144" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M144" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -5093,16 +5114,16 @@
         <v>8</v>
       </c>
       <c r="J145" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="K145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L145" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M145" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -5113,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M146" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -5124,16 +5145,16 @@
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I147" t="s">
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M147" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -5141,16 +5162,16 @@
         <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M148" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -5161,10 +5182,10 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M149" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -5175,10 +5196,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M150" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -5186,13 +5207,13 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I151" t="s">
         <v>8</v>
       </c>
       <c r="L151" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M151" t="s">
         <v>107</v>
@@ -5206,10 +5227,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M152" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -5220,10 +5241,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M153" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -5234,10 +5255,10 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M154" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -5248,10 +5269,10 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M155" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -5262,10 +5283,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M156" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -5273,16 +5294,16 @@
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="I157" t="s">
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M157" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -5293,10 +5314,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M158" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -5307,10 +5328,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M159" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -5321,10 +5342,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M160" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -5335,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M161" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -5349,10 +5370,10 @@
         <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M162" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -5363,10 +5384,10 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M163" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -5377,10 +5398,10 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M164" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -5391,10 +5412,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M165" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -5402,16 +5423,16 @@
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I166" t="s">
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M166" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -5422,10 +5443,10 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
+        <v>333</v>
+      </c>
+      <c r="M167" t="s">
         <v>330</v>
-      </c>
-      <c r="M167" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -5436,10 +5457,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M168" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -5450,10 +5471,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M169" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -5461,10 +5482,10 @@
         <v>14</v>
       </c>
       <c r="L170" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M170" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -5475,10 +5496,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M171" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -5486,10 +5507,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M172" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5500,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="L173" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M173" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -5511,16 +5532,16 @@
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="I174" t="s">
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M174" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -5531,10 +5552,10 @@
         <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M175" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -5545,10 +5566,10 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M176" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -5559,10 +5580,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M177" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -5573,10 +5594,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M178" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -5584,10 +5605,10 @@
         <v>14</v>
       </c>
       <c r="L179" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M179" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -5595,16 +5616,16 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I180" t="s">
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M180" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -5615,10 +5636,10 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M181" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -5629,10 +5650,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M182" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -5643,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M183" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -5657,10 +5678,10 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M184" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -5668,16 +5689,16 @@
         <v>3</v>
       </c>
       <c r="H185" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I185" t="s">
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M185" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -5688,10 +5709,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
+        <v>365</v>
+      </c>
+      <c r="M186" t="s">
         <v>362</v>
-      </c>
-      <c r="M186" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -5702,10 +5723,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M187" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -5716,10 +5737,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M188" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -5730,10 +5751,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M189" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -5744,10 +5765,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M190" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -5758,10 +5779,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M191" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -5772,10 +5793,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M192" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -5786,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M193" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -5800,10 +5821,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M194" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -5811,16 +5832,16 @@
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="I195" t="s">
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M195" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -5831,10 +5852,10 @@
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M196" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -5845,10 +5866,10 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M197" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -5859,10 +5880,10 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M198" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -5873,10 +5894,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M199" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -5887,10 +5908,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M200" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -5898,16 +5919,16 @@
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="I201" t="s">
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M201" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -5918,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M202" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -5932,10 +5953,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M203" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -5943,10 +5964,10 @@
         <v>14</v>
       </c>
       <c r="L204" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M204" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -5957,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M205" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -5971,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M206" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -5982,16 +6003,16 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I207" t="s">
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M207" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -6002,10 +6023,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M208" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -6016,10 +6037,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M209" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -6030,10 +6051,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M210" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -6041,10 +6062,10 @@
         <v>14</v>
       </c>
       <c r="L211" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M211" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -6055,10 +6076,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M212" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -6069,10 +6090,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M213" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -6083,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M214" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -6097,10 +6118,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M215" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -6111,10 +6132,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M216" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -6125,10 +6146,10 @@
         <v>8</v>
       </c>
       <c r="L217" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M217" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -6139,10 +6160,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M218" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -6153,10 +6174,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M219" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -6164,16 +6185,16 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="I220" t="s">
         <v>8</v>
       </c>
       <c r="L220" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M220" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -6184,10 +6205,10 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M221" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -6198,10 +6219,10 @@
         <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M222" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -6212,10 +6233,10 @@
         <v>8</v>
       </c>
       <c r="L223" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M223" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -6226,10 +6247,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M224" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -6240,10 +6261,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M225" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -6251,16 +6272,16 @@
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>437</v>
+        <v>117</v>
       </c>
       <c r="I226" t="s">
         <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M226" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -6271,10 +6292,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M227" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -6285,10 +6306,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M228" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -6299,10 +6320,10 @@
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M229" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -6313,10 +6334,10 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M230" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -6327,10 +6348,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M231" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -6341,10 +6362,10 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M232" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -6352,16 +6373,16 @@
         <v>3</v>
       </c>
       <c r="H233" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="I233" t="s">
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M233" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -6372,10 +6393,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M234" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -6386,10 +6407,10 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M235" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -6400,10 +6421,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M236" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -6414,10 +6435,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M237" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -6425,16 +6446,16 @@
         <v>3</v>
       </c>
       <c r="H238" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I238" t="s">
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M238" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -6445,10 +6466,10 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M239" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -6459,10 +6480,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M240" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -6473,10 +6494,10 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M241" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -6487,10 +6508,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M242" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -6501,10 +6522,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M243" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -6515,10 +6536,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M244" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -6529,10 +6550,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M245" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -6540,10 +6561,10 @@
         <v>14</v>
       </c>
       <c r="L246" t="s">
+        <v>471</v>
+      </c>
+      <c r="M246" t="s">
         <v>469</v>
-      </c>
-      <c r="M246" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -6551,16 +6572,16 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="I247" t="s">
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M247" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -6571,10 +6592,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M248" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -6585,10 +6606,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M249" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -6599,10 +6620,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M250" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -6613,10 +6634,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M251" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -6627,10 +6648,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M252" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -6638,16 +6659,16 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>206</v>
+        <v>481</v>
       </c>
       <c r="I253" t="s">
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M253" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -6658,10 +6679,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M254" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -6672,10 +6693,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M255" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -6686,10 +6707,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M256" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -6697,10 +6718,10 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M257" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -6708,10 +6729,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M258" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -6722,10 +6743,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M259" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -6733,16 +6754,16 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="I260" t="s">
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M260" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -6753,10 +6774,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M261" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -6767,10 +6788,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M262" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -6778,10 +6799,10 @@
         <v>14</v>
       </c>
       <c r="L263" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M263" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -6792,10 +6813,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
+        <v>498</v>
+      </c>
+      <c r="M264" t="s">
         <v>495</v>
-      </c>
-      <c r="M264" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -6806,10 +6827,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M265" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -6820,10 +6841,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M266" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -6834,10 +6855,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M267" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -6848,10 +6869,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
+        <v>503</v>
+      </c>
+      <c r="M268" t="s">
         <v>500</v>
-      </c>
-      <c r="M268" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -6859,16 +6880,16 @@
         <v>3</v>
       </c>
       <c r="H269" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I269" t="s">
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M269" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -6879,7 +6900,7 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M270" t="s">
         <v>107</v>
@@ -6893,10 +6914,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M271" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -6907,10 +6928,10 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M272" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -6921,10 +6942,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M273" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -6932,16 +6953,16 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="I274" t="s">
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M274" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -6952,10 +6973,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M275" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -6966,10 +6987,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M276" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -6980,10 +7001,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
+        <v>515</v>
+      </c>
+      <c r="M277" t="s">
         <v>512</v>
-      </c>
-      <c r="M277" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -6991,16 +7012,16 @@
         <v>3</v>
       </c>
       <c r="H278" t="s">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="I278" t="s">
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M278" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -7011,10 +7032,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M279" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -7025,10 +7046,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M280" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -7039,10 +7060,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M281" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -7053,10 +7074,10 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M282" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -7067,10 +7088,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M283" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -7078,16 +7099,16 @@
         <v>28</v>
       </c>
       <c r="H284" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I284" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L284" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M284" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -7098,10 +7119,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M285" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -7112,10 +7133,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M286" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -7126,10 +7147,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M287" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -7140,10 +7161,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M288" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -7151,16 +7172,16 @@
         <v>28</v>
       </c>
       <c r="H289" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I289" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L289" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M289" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -7171,10 +7192,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M290" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -7185,10 +7206,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M291" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -7199,10 +7220,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="M292" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -7210,16 +7231,16 @@
         <v>3</v>
       </c>
       <c r="H293" t="s">
-        <v>58</v>
+        <v>541</v>
       </c>
       <c r="I293" t="s">
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M293" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -7230,10 +7251,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M294" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -7244,10 +7265,10 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M295" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -7258,10 +7279,10 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M296" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -7269,16 +7290,16 @@
         <v>3</v>
       </c>
       <c r="H297" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="I297" t="s">
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M297" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -7289,10 +7310,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M298" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -7303,10 +7324,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M299" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -7317,10 +7338,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M300" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -7331,10 +7352,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M301" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -7345,10 +7366,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M302" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -7359,10 +7380,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M303" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -7370,16 +7391,16 @@
         <v>3</v>
       </c>
       <c r="H304" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I304" t="s">
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M304" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -7387,22 +7408,22 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="C305" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="D305" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I305" t="s">
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M305" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -7413,10 +7434,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M306" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -7427,10 +7448,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M307" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -7438,22 +7459,22 @@
         <v>5</v>
       </c>
       <c r="B308" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D308" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I308" t="s">
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M308" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -7461,16 +7482,16 @@
         <v>3</v>
       </c>
       <c r="H309" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="I309" t="s">
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M309" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -7478,22 +7499,22 @@
         <v>5</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="C310" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="D310" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I310" t="s">
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M310" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -7501,22 +7522,22 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C311" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D311" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I311" t="s">
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M311" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -7527,10 +7548,10 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M312" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -7541,10 +7562,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M313" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -7555,10 +7576,10 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M314" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -7572,16 +7593,16 @@
         <v>158</v>
       </c>
       <c r="D315" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I315" t="s">
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M315" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -7592,10 +7613,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M316" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -7609,19 +7630,19 @@
         <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H317" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I317" t="s">
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M317" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -7629,22 +7650,22 @@
         <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C318" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D318" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I318" t="s">
         <v>8</v>
       </c>
       <c r="L318" t="s">
+        <v>583</v>
+      </c>
+      <c r="M318" t="s">
         <v>580</v>
-      </c>
-      <c r="M318" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -7655,10 +7676,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="M319" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -7666,22 +7687,22 @@
         <v>5</v>
       </c>
       <c r="B320" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C320" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D320" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I320" t="s">
         <v>8</v>
       </c>
       <c r="L320" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M320" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -7689,16 +7710,16 @@
         <v>3</v>
       </c>
       <c r="H321" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="I321" t="s">
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M321" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -7706,22 +7727,22 @@
         <v>5</v>
       </c>
       <c r="B322" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C322" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="D322" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I322" t="s">
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M322" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -7732,10 +7753,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M323" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -7743,22 +7764,22 @@
         <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C324" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D324" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I324" t="s">
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M324" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -7766,22 +7787,22 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C325" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D325" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I325" t="s">
         <v>8</v>
       </c>
       <c r="L325" t="s">
+        <v>596</v>
+      </c>
+      <c r="M325" t="s">
         <v>593</v>
-      </c>
-      <c r="M325" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -7792,10 +7813,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M326" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -7806,10 +7827,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M327" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -7817,34 +7838,34 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C328" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
       </c>
       <c r="E328" t="s">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="F328" t="s">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="G328" t="s">
         <v>6</v>
       </c>
       <c r="H328" t="s">
-        <v>156</v>
+        <v>601</v>
       </c>
       <c r="I328" t="s">
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M328" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -7855,10 +7876,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M329" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -7869,10 +7890,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M330" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -7880,19 +7901,19 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C331" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>38</v>
+        <v>607</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>607</v>
       </c>
       <c r="G331" t="s">
         <v>6</v>
@@ -7901,10 +7922,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="M331" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -7915,10 +7936,10 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="M332" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -7926,34 +7947,34 @@
         <v>1</v>
       </c>
       <c r="B333" t="s">
-        <v>605</v>
+        <v>123</v>
       </c>
       <c r="C333" t="s">
-        <v>605</v>
+        <v>123</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>164</v>
+        <v>611</v>
       </c>
       <c r="F333" t="s">
-        <v>164</v>
+        <v>611</v>
       </c>
       <c r="G333" t="s">
         <v>6</v>
       </c>
       <c r="H333" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="I333" t="s">
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M333" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -7961,19 +7982,19 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>607</v>
+        <v>29</v>
       </c>
       <c r="C334" t="s">
-        <v>607</v>
+        <v>29</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F334" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G334" t="s">
         <v>6</v>
@@ -7982,10 +8003,10 @@
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="M334" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -7996,10 +8017,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="M335" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -8007,19 +8028,19 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C336" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>42</v>
+        <v>611</v>
       </c>
       <c r="F336" t="s">
-        <v>42</v>
+        <v>611</v>
       </c>
       <c r="G336" t="s">
         <v>6</v>
@@ -8028,10 +8049,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="M336" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -8042,10 +8063,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="M337" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -8053,19 +8074,19 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>615</v>
+        <v>22</v>
       </c>
       <c r="C338" t="s">
-        <v>615</v>
+        <v>22</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F338" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G338" t="s">
         <v>6</v>
@@ -8074,10 +8095,10 @@
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M338" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -8088,10 +8109,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M339" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -8099,16 +8120,16 @@
         <v>3</v>
       </c>
       <c r="H340" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="I340" t="s">
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="M340" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -8116,10 +8137,10 @@
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F341" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G341" t="s">
         <v>6</v>
@@ -8128,10 +8149,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M341" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -8139,10 +8160,10 @@
         <v>14</v>
       </c>
       <c r="L342" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M342" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
